--- a/data/trans_orig/Q5407-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4706</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1787</v>
+        <v>1764</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10496</v>
+        <v>10090</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03648214731520024</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01385245387466314</v>
+        <v>0.01367279134730164</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08136897730755202</v>
+        <v>0.07821990612553401</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -765,19 +765,19 @@
         <v>28715</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19331</v>
+        <v>19462</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39259</v>
+        <v>42903</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1054888229376189</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07101413245343158</v>
+        <v>0.07149427412168392</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1442233235261069</v>
+        <v>0.1576070036545719</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -786,19 +786,19 @@
         <v>33421</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22793</v>
+        <v>23830</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46175</v>
+        <v>46874</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08330249669563346</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05681118772758757</v>
+        <v>0.05939597910935756</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1150908727259053</v>
+        <v>0.1168348141963445</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>14297</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8985</v>
+        <v>8444</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22316</v>
+        <v>21834</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1108368622820338</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0696531460871611</v>
+        <v>0.06546515398250094</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1730075098437447</v>
+        <v>0.169271398433732</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -836,19 +836,19 @@
         <v>34280</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23490</v>
+        <v>23484</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46133</v>
+        <v>46079</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1259321916806822</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08629132583959441</v>
+        <v>0.08626939593145615</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1694748569534319</v>
+        <v>0.1692754679868259</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -857,19 +857,19 @@
         <v>48577</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36652</v>
+        <v>35962</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>61858</v>
+        <v>63164</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1210788945214166</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09135627377417523</v>
+        <v>0.08963656118386393</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1541801682022554</v>
+        <v>0.1574360979163282</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>109988</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>100705</v>
+        <v>101977</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>116095</v>
+        <v>116742</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8526809904027659</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7807164965519451</v>
+        <v>0.7905717329538878</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9000263702899797</v>
+        <v>0.9050429964750807</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>208</v>
@@ -907,19 +907,19 @@
         <v>209216</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>195473</v>
+        <v>194050</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>222078</v>
+        <v>222574</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7685789853816989</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7180906043633212</v>
+        <v>0.7128641076489691</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8158280633742147</v>
+        <v>0.8176478086725656</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>326</v>
@@ -928,19 +928,19 @@
         <v>319205</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>303432</v>
+        <v>301802</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>336429</v>
+        <v>334568</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7956186087829499</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7563058002583937</v>
+        <v>0.7522415405099753</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8385511680604655</v>
+        <v>0.833913072833399</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6930</v>
+        <v>6156</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01217854491791696</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04262964561897805</v>
+        <v>0.03787075101549786</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1053,19 +1053,19 @@
         <v>2929</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8101</v>
+        <v>7921</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01438581751650322</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004470448546798254</v>
+        <v>0.004445460611755628</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03978762040118176</v>
+        <v>0.03890705643024839</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1074,19 +1074,19 @@
         <v>4909</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1839</v>
+        <v>1870</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11263</v>
+        <v>11662</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0134058872514741</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005022988054967301</v>
+        <v>0.005105824645596279</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03076082982463551</v>
+        <v>0.03185083474400946</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>12523</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7128</v>
+        <v>7447</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20544</v>
+        <v>20789</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07703806319451741</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04384984900765497</v>
+        <v>0.04581475427534268</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1263833798755934</v>
+        <v>0.1278863342311245</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>24</v>
@@ -1124,19 +1124,19 @@
         <v>25454</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16864</v>
+        <v>16224</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36335</v>
+        <v>36666</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1250231136263847</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08282921727927513</v>
+        <v>0.07968577933439017</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1784648530506965</v>
+        <v>0.1800909854774936</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>38</v>
@@ -1145,19 +1145,19 @@
         <v>37977</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>26910</v>
+        <v>27483</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>49813</v>
+        <v>50323</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1037198984198659</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07349462722272507</v>
+        <v>0.07505833319873562</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.136044030102467</v>
+        <v>0.1374365073299272</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>148052</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139753</v>
+        <v>139551</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>153722</v>
+        <v>153666</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9107833918875656</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8597279814181379</v>
+        <v>0.8584858009517181</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9456613585333978</v>
+        <v>0.9453144641730534</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>173</v>
@@ -1195,19 +1195,19 @@
         <v>175214</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>163588</v>
+        <v>164339</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>184330</v>
+        <v>184589</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8605910688571121</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8034902268122648</v>
+        <v>0.8071782616465327</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9053691773652103</v>
+        <v>0.906639898670054</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>328</v>
@@ -1216,19 +1216,19 @@
         <v>323267</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>310320</v>
+        <v>310240</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>334725</v>
+        <v>334834</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.88287421432866</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.847515358058247</v>
+        <v>0.847294982844195</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9141680006310492</v>
+        <v>0.9144643059998475</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>2607</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7661</v>
+        <v>8101</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01798695238732098</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005624996134808856</v>
+        <v>0.005662401015772246</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05286598731778204</v>
+        <v>0.05590060168776617</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1341,19 +1341,19 @@
         <v>3387</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9344</v>
+        <v>9193</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02319084474689271</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007217197328629793</v>
+        <v>0.007149948448920513</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06397163982560852</v>
+        <v>0.06293494642460486</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -1362,19 +1362,19 @@
         <v>5994</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2510</v>
+        <v>2632</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12183</v>
+        <v>12457</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02059918887923088</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008626478604334478</v>
+        <v>0.009043565186838578</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04186904079184301</v>
+        <v>0.04281162397966512</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>8453</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3799</v>
+        <v>3866</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16306</v>
+        <v>16047</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05832966595054503</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02621553759454377</v>
+        <v>0.02667627063689738</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1125220162161569</v>
+        <v>0.1107336578556865</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -1412,19 +1412,19 @@
         <v>16756</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10110</v>
+        <v>10041</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25881</v>
+        <v>26469</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1147162456494085</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06921608964026095</v>
+        <v>0.06874440313886518</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1771836203696616</v>
+        <v>0.1812084470405145</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -1433,19 +1433,19 @@
         <v>25209</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16617</v>
+        <v>15480</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37268</v>
+        <v>34959</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08663445608949381</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05710645727944837</v>
+        <v>0.05319888376121053</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1280760997566901</v>
+        <v>0.1201404529014688</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>133857</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>126019</v>
+        <v>124949</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>139223</v>
+        <v>138773</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9236833816621339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8696009266257322</v>
+        <v>0.8622192729276722</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9607180465157132</v>
+        <v>0.9576126300729644</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>122</v>
@@ -1483,19 +1483,19 @@
         <v>125923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>115911</v>
+        <v>115342</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>133512</v>
+        <v>133134</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8620929096036988</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7935454311257216</v>
+        <v>0.7896517829036664</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9140464241643892</v>
+        <v>0.9114587621178353</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>255</v>
@@ -1504,19 +1504,19 @@
         <v>259781</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>246070</v>
+        <v>248757</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>269739</v>
+        <v>270082</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8927663550312753</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8456487294055516</v>
+        <v>0.8548833790791102</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.926990272816181</v>
+        <v>0.928167980956819</v>
       </c>
     </row>
     <row r="15">
@@ -1621,19 +1621,19 @@
         <v>3349</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9067</v>
+        <v>8956</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08534550826892412</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0246259163867849</v>
+        <v>0.02456890536007318</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2310915366126972</v>
+        <v>0.2282627602952437</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1642,19 +1642,19 @@
         <v>3349</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>940</v>
+        <v>966</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8846</v>
+        <v>8921</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03780371242759401</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01061120290961867</v>
+        <v>0.01090558770644191</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09986682265477949</v>
+        <v>0.1007174029959941</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>2743</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7375</v>
+        <v>6544</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05558429269668171</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01657118529860074</v>
+        <v>0.01675526378002602</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1494571388935155</v>
+        <v>0.1326254982595175</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7458</v>
+        <v>7484</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06047669084633863</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1900805870256658</v>
+        <v>0.1907429771951098</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1713,19 +1713,19 @@
         <v>5115</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1939</v>
+        <v>1780</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10752</v>
+        <v>11062</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05775137584472674</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02189373088695391</v>
+        <v>0.02009311343030766</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1213872834235843</v>
+        <v>0.1248906131273399</v>
       </c>
     </row>
     <row r="18">
@@ -1742,19 +1742,19 @@
         <v>46599</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>41967</v>
+        <v>42798</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>48524</v>
+        <v>48515</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9444157073033183</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8505428611064844</v>
+        <v>0.8673745017404825</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9834288147013992</v>
+        <v>0.983244736219974</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>34</v>
@@ -1763,19 +1763,19 @@
         <v>33514</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>28055</v>
+        <v>27279</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37161</v>
+        <v>37188</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8541778008847373</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7150402268149791</v>
+        <v>0.6952671876467892</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9471447885861369</v>
+        <v>0.9478146175736148</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>83</v>
@@ -1784,19 +1784,19 @@
         <v>80112</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>73289</v>
+        <v>74119</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>84377</v>
+        <v>84664</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9044449117276793</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8274102195697804</v>
+        <v>0.8367889537843455</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9525957884870447</v>
+        <v>0.9558385529997394</v>
       </c>
     </row>
     <row r="19">
@@ -1888,19 +1888,19 @@
         <v>9292</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4739</v>
+        <v>4900</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16511</v>
+        <v>17866</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01912736352063615</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009754231696515464</v>
+        <v>0.01008732423265915</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03398603059367836</v>
+        <v>0.03677600454805414</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -1909,19 +1909,19 @@
         <v>38380</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27945</v>
+        <v>28077</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53805</v>
+        <v>52193</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05805404501406178</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04226960622376173</v>
+        <v>0.04246877476572201</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08138588291249056</v>
+        <v>0.07894754621875383</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -1930,19 +1930,19 @@
         <v>47672</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>35353</v>
+        <v>35382</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>61974</v>
+        <v>62057</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04156570012719368</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03082409218128692</v>
+        <v>0.03085009666584278</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05403577397534051</v>
+        <v>0.0541079843212307</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>38015</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>27559</v>
+        <v>28303</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50948</v>
+        <v>51474</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0782525744125888</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05672761508016521</v>
+        <v>0.05825991736852103</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1048744426173165</v>
+        <v>0.1059564101777355</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>72</v>
@@ -1980,19 +1980,19 @@
         <v>78864</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>63569</v>
+        <v>62919</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>97482</v>
+        <v>100277</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1192895879926126</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09615508926367683</v>
+        <v>0.09517189455102459</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.14745206870321</v>
+        <v>0.1516791342779987</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>113</v>
@@ -2001,19 +2001,19 @@
         <v>116879</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>96708</v>
+        <v>97538</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>137527</v>
+        <v>139593</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1019073605055662</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08432005751715996</v>
+        <v>0.08504345749496163</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1199098466884086</v>
+        <v>0.1217118780997435</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>438496</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>423934</v>
+        <v>423418</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>449036</v>
+        <v>448986</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.902620062066775</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8726435357486705</v>
+        <v>0.8715823299929009</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.924315026603469</v>
+        <v>0.924212485731295</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>537</v>
@@ -2051,19 +2051,19 @@
         <v>543868</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>523406</v>
+        <v>521889</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>563505</v>
+        <v>562208</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8226563669933257</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7917052168083257</v>
+        <v>0.7894107559253416</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8523600584620596</v>
+        <v>0.8503972729620245</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>992</v>
@@ -2072,19 +2072,19 @@
         <v>982364</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>958974</v>
+        <v>959054</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1005046</v>
+        <v>1003585</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8565269393672401</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8361327418360803</v>
+        <v>0.8362028902276933</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8763028765020328</v>
+        <v>0.8750292537974149</v>
       </c>
     </row>
     <row r="23">
@@ -2416,19 +2416,19 @@
         <v>13710</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7939</v>
+        <v>7310</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22034</v>
+        <v>21135</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09968248240544822</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05772372687247765</v>
+        <v>0.0531524580775016</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1602083048528281</v>
+        <v>0.1536703184958748</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -2437,19 +2437,19 @@
         <v>36844</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26797</v>
+        <v>27008</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50065</v>
+        <v>49101</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1708632494812934</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1242689605472089</v>
+        <v>0.1252472801255778</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2321746404630068</v>
+        <v>0.2277037604903575</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -2458,19 +2458,19 @@
         <v>50554</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38521</v>
+        <v>37308</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65365</v>
+        <v>64626</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.143143469930842</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1090728218627479</v>
+        <v>0.1056378928994012</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1850818776627555</v>
+        <v>0.1829885228765594</v>
       </c>
     </row>
     <row r="5">
@@ -2487,19 +2487,19 @@
         <v>19412</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11938</v>
+        <v>10901</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29339</v>
+        <v>28856</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1411425126467521</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0868012335010267</v>
+        <v>0.07926188412420734</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2133212477601219</v>
+        <v>0.209814778350788</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -2508,19 +2508,19 @@
         <v>30191</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21405</v>
+        <v>20657</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41746</v>
+        <v>41143</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1400080833587027</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09926436088169681</v>
+        <v>0.09579528776345854</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1935954756228467</v>
+        <v>0.1907994391491128</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -2529,19 +2529,19 @@
         <v>49602</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37192</v>
+        <v>37307</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>64165</v>
+        <v>64272</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1404498618203874</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1053104965476959</v>
+        <v>0.1056342650011172</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1816844431206892</v>
+        <v>0.1819884570683774</v>
       </c>
     </row>
     <row r="6">
@@ -2558,19 +2558,19 @@
         <v>104412</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>94020</v>
+        <v>93370</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114228</v>
+        <v>114792</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7591750049477997</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6836154121753211</v>
+        <v>0.6788893051477247</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8305525183486647</v>
+        <v>0.8346515792116703</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>139</v>
@@ -2579,19 +2579,19 @@
         <v>148600</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>133973</v>
+        <v>132925</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>160865</v>
+        <v>161327</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6891286671600039</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6212981794281293</v>
+        <v>0.616439482345895</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7460073697178328</v>
+        <v>0.7481510951063136</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>232</v>
@@ -2600,19 +2600,19 @@
         <v>253011</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>234890</v>
+        <v>235720</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>269617</v>
+        <v>269878</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7164066682487706</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6650953493730178</v>
+        <v>0.6674468409764227</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7634261709609872</v>
+        <v>0.7641657776030264</v>
       </c>
     </row>
     <row r="7">
@@ -2704,19 +2704,19 @@
         <v>8661</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3221</v>
+        <v>3365</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16877</v>
+        <v>17168</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05021835878566226</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01867663259847403</v>
+        <v>0.01951173893137295</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09785417800229082</v>
+        <v>0.09953992187936178</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -2725,19 +2725,19 @@
         <v>26353</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17459</v>
+        <v>17286</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37704</v>
+        <v>37164</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1066652240294359</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07066606893546183</v>
+        <v>0.06996613872017383</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1526079811521248</v>
+        <v>0.1504214390900546</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>31</v>
@@ -2746,19 +2746,19 @@
         <v>35015</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>24282</v>
+        <v>24490</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>49385</v>
+        <v>49147</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08346015095934277</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05787779640707444</v>
+        <v>0.05837480419109792</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1177129539779518</v>
+        <v>0.1171450231098451</v>
       </c>
     </row>
     <row r="9">
@@ -2775,19 +2775,19 @@
         <v>18436</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11526</v>
+        <v>11104</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>31971</v>
+        <v>30635</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1068957230969155</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06682789779767033</v>
+        <v>0.06438121291687944</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1853711678836071</v>
+        <v>0.1776267683695703</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>39</v>
@@ -2796,19 +2796,19 @@
         <v>40979</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31094</v>
+        <v>29294</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>54818</v>
+        <v>52997</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1658612197127853</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1258521501983662</v>
+        <v>0.1185663539931066</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2218749790487065</v>
+        <v>0.2145064485775213</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>54</v>
@@ -2817,19 +2817,19 @@
         <v>59415</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>44999</v>
+        <v>44600</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>75086</v>
+        <v>74901</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1416207476923037</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1072585175199401</v>
+        <v>0.1063087721684336</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1789727704377262</v>
+        <v>0.1785341025476714</v>
       </c>
     </row>
     <row r="10">
@@ -2846,19 +2846,19 @@
         <v>145373</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132916</v>
+        <v>132655</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>155418</v>
+        <v>154665</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8428859181174222</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7706587832748751</v>
+        <v>0.7691487534325423</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9011289985984806</v>
+        <v>0.8967652673034233</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>173</v>
@@ -2867,19 +2867,19 @@
         <v>179735</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>165415</v>
+        <v>164417</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>194047</v>
+        <v>193364</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7274735562577788</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.669513607481274</v>
+        <v>0.6654739004599446</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7854017885976774</v>
+        <v>0.7826374726383756</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>308</v>
@@ -2888,19 +2888,19 @@
         <v>325106</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>305205</v>
+        <v>306574</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>342652</v>
+        <v>340538</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7749191013483535</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7274814873036518</v>
+        <v>0.7307455808060411</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8167414660592316</v>
+        <v>0.8117003119947538</v>
       </c>
     </row>
     <row r="11">
@@ -2992,19 +2992,19 @@
         <v>6167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12667</v>
+        <v>12414</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03709539018672483</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01259688517544798</v>
+        <v>0.01257227387655688</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07620192224725686</v>
+        <v>0.07467485909473411</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -3013,19 +3013,19 @@
         <v>17120</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9650</v>
+        <v>9591</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26460</v>
+        <v>27130</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08913481982106285</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05023974264662111</v>
+        <v>0.049935984812124</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1377615183897135</v>
+        <v>0.1412498290608997</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>21</v>
@@ -3034,19 +3034,19 @@
         <v>23287</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15003</v>
+        <v>14949</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>34937</v>
+        <v>34340</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06499127987567306</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04187333761944916</v>
+        <v>0.04172078780345185</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09750544800475872</v>
+        <v>0.09584049897316245</v>
       </c>
     </row>
     <row r="13">
@@ -3063,19 +3063,19 @@
         <v>11440</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5967</v>
+        <v>5266</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21734</v>
+        <v>20054</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06881553945402337</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03589256090294123</v>
+        <v>0.03167891061158974</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1307454721264015</v>
+        <v>0.1206363907342777</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -3084,19 +3084,19 @@
         <v>20289</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11953</v>
+        <v>12934</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30728</v>
+        <v>30797</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1056335934282667</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06223336236593594</v>
+        <v>0.0673406462602662</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1599799849773242</v>
+        <v>0.1603429922034323</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -3105,19 +3105,19 @@
         <v>31729</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21228</v>
+        <v>20842</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45742</v>
+        <v>44789</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08855196584155479</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05924672240182664</v>
+        <v>0.05816698768899933</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1276621807988214</v>
+        <v>0.1250011323675006</v>
       </c>
     </row>
     <row r="14">
@@ -3134,19 +3134,19 @@
         <v>148629</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>137626</v>
+        <v>138459</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>156057</v>
+        <v>156006</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8940890703592518</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8278985987556664</v>
+        <v>0.8329105326919646</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.938771390165172</v>
+        <v>0.9384688270476209</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>147</v>
@@ -3155,19 +3155,19 @@
         <v>154662</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>141779</v>
+        <v>141778</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>164961</v>
+        <v>165951</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8052315867506704</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7381612301576513</v>
+        <v>0.738154081253273</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8588518666297458</v>
+        <v>0.8640072536135813</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>282</v>
@@ -3176,19 +3176,19 @@
         <v>303291</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>287489</v>
+        <v>288208</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>317147</v>
+        <v>317837</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8464567542827721</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8023564221393397</v>
+        <v>0.8043631936243075</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.885130260260481</v>
+        <v>0.8870552693048767</v>
       </c>
     </row>
     <row r="15">
@@ -3280,19 +3280,19 @@
         <v>6316</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2055</v>
+        <v>2078</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15115</v>
+        <v>14580</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08087181316403566</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02631344594432276</v>
+        <v>0.02661254325310336</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1935439516763938</v>
+        <v>0.1866947801765057</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -3301,19 +3301,19 @@
         <v>7504</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3214</v>
+        <v>3121</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14923</v>
+        <v>13949</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08823510314108612</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03779293154764658</v>
+        <v>0.03670103833312873</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1754607909954288</v>
+        <v>0.1640102592991665</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -3322,19 +3322,19 @@
         <v>13820</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7351</v>
+        <v>7281</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23175</v>
+        <v>23655</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08471037061643348</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0450569065759045</v>
+        <v>0.0446313601558033</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1420492094010919</v>
+        <v>0.1449906170353514</v>
       </c>
     </row>
     <row r="17">
@@ -3351,19 +3351,19 @@
         <v>5285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1059</v>
+        <v>1962</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13516</v>
+        <v>13200</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06767374495153584</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01355969090396103</v>
+        <v>0.02512520522026137</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1730672993776397</v>
+        <v>0.1690267778864994</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -3372,19 +3372,19 @@
         <v>11726</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6387</v>
+        <v>6275</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20280</v>
+        <v>19423</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1378729487585406</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07510208690724211</v>
+        <v>0.07377659165184931</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2384529711860208</v>
+        <v>0.2283741008793119</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -3393,19 +3393,19 @@
         <v>17011</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10059</v>
+        <v>10317</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26393</v>
+        <v>27917</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1042692990809567</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06165660057566884</v>
+        <v>0.06323786987538739</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.161776011560171</v>
+        <v>0.1711140914660425</v>
       </c>
     </row>
     <row r="18">
@@ -3422,19 +3422,19 @@
         <v>66496</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>57064</v>
+        <v>57603</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>72445</v>
+        <v>72085</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8514544418844285</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7306788569132299</v>
+        <v>0.7375850636400799</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9276278247915841</v>
+        <v>0.9230240663120628</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>57</v>
@@ -3443,19 +3443,19 @@
         <v>65820</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>56827</v>
+        <v>56372</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>72755</v>
+        <v>73365</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7738919481003732</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6681618295150777</v>
+        <v>0.6628047971993839</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8554356185557092</v>
+        <v>0.8626078414067905</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>116</v>
@@ -3464,19 +3464,19 @@
         <v>132315</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>121751</v>
+        <v>120559</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>141886</v>
+        <v>142048</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8110203303026099</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7462676074901076</v>
+        <v>0.7389628680648396</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8696852105569618</v>
+        <v>0.8706785952631964</v>
       </c>
     </row>
     <row r="19">
@@ -3568,19 +3568,19 @@
         <v>34853</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23669</v>
+        <v>24557</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48699</v>
+        <v>49431</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06287387456501341</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04269881417477307</v>
+        <v>0.04430066727239696</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08785047265181903</v>
+        <v>0.08917148945107033</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -3589,19 +3589,19 @@
         <v>87822</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>70959</v>
+        <v>70347</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>108108</v>
+        <v>107116</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.118706920754331</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09591412443706786</v>
+        <v>0.0950866823286125</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.146127572697803</v>
+        <v>0.1447862016291845</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>111</v>
@@ -3610,19 +3610,19 @@
         <v>122675</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>100639</v>
+        <v>102989</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>146331</v>
+        <v>143877</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09479158209044208</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07776427619084714</v>
+        <v>0.0795804320212543</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1130708252914682</v>
+        <v>0.1111746338578262</v>
       </c>
     </row>
     <row r="21">
@@ -3639,19 +3639,19 @@
         <v>54573</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>41438</v>
+        <v>40011</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>72545</v>
+        <v>71660</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09844722014861486</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07475356619722441</v>
+        <v>0.07217838626622122</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1308692205976081</v>
+        <v>0.1292731053053194</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>95</v>
@@ -3660,19 +3660,19 @@
         <v>103184</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>85062</v>
+        <v>84644</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>123560</v>
+        <v>125309</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1394721658633289</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1149758576695831</v>
+        <v>0.1144120337296701</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1670136515759277</v>
+        <v>0.1693776349480407</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>141</v>
@@ -3681,19 +3681,19 @@
         <v>157757</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>131816</v>
+        <v>134631</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>183726</v>
+        <v>185213</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1218996790047709</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1018550842785267</v>
+        <v>0.1040297005654609</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.141965910423478</v>
+        <v>0.1431152475056379</v>
       </c>
     </row>
     <row r="22">
@@ -3710,19 +3710,19 @@
         <v>464908</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>444854</v>
+        <v>444045</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>482499</v>
+        <v>482814</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8386789052863717</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8025010749369308</v>
+        <v>0.8010430120044042</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8704116864653246</v>
+        <v>0.8709798213421526</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>516</v>
@@ -3731,19 +3731,19 @@
         <v>548815</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>523831</v>
+        <v>522084</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>572351</v>
+        <v>572672</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.74182091338234</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.708051401073577</v>
+        <v>0.7056892304277034</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7736348596075207</v>
+        <v>0.7740678503666524</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>938</v>
@@ -3752,19 +3752,19 @@
         <v>1013723</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>982946</v>
+        <v>978711</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1043879</v>
+        <v>1044888</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.783308738904787</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.759527052058129</v>
+        <v>0.7562550757974741</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8066103185529035</v>
+        <v>0.8073899986556613</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>9931</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5468</v>
+        <v>5120</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17505</v>
+        <v>17545</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05965951894762846</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03285259043120291</v>
+        <v>0.03075663889354035</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1051639156586172</v>
+        <v>0.1054043699104059</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -4117,19 +4117,19 @@
         <v>28270</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18482</v>
+        <v>17880</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39659</v>
+        <v>40312</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1085721011880244</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07098138749853071</v>
+        <v>0.06866886106959222</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1523125522309735</v>
+        <v>0.1548203532441109</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -4138,19 +4138,19 @@
         <v>38200</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26686</v>
+        <v>27194</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52126</v>
+        <v>53375</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08949735837304745</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0625203922238636</v>
+        <v>0.06371042083630787</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.122123724939395</v>
+        <v>0.1250485336900218</v>
       </c>
     </row>
     <row r="5">
@@ -4167,19 +4167,19 @@
         <v>20253</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12684</v>
+        <v>13935</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28504</v>
+        <v>30377</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1216746615630763</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07619850862669181</v>
+        <v>0.08371858642780014</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1712407364883705</v>
+        <v>0.1824971843112152</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -4188,19 +4188,19 @@
         <v>59301</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47068</v>
+        <v>45476</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>76825</v>
+        <v>75798</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.227749400562163</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1807664102878071</v>
+        <v>0.1746527436739757</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2950515291721919</v>
+        <v>0.2911057860524103</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>71</v>
@@ -4209,19 +4209,19 @@
         <v>79554</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63247</v>
+        <v>63235</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>99041</v>
+        <v>98428</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1863827772334454</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1481771336689828</v>
+        <v>0.1481485365893002</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2320369138847715</v>
+        <v>0.2306009882748973</v>
       </c>
     </row>
     <row r="6">
@@ -4238,19 +4238,19 @@
         <v>136270</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>125792</v>
+        <v>125002</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>144735</v>
+        <v>144267</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8186658194892953</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7557139910636713</v>
+        <v>0.7509719989528739</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8695170212239238</v>
+        <v>0.8667108911924943</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>151</v>
@@ -4259,19 +4259,19 @@
         <v>172807</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>155490</v>
+        <v>155352</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>188152</v>
+        <v>188636</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6636784982498126</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5971689086502694</v>
+        <v>0.5966392507505197</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7226123577869156</v>
+        <v>0.7244715194882553</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>293</v>
@@ -4280,19 +4280,19 @@
         <v>309078</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>289280</v>
+        <v>287361</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>328196</v>
+        <v>327797</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7241198643935072</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6777379434262996</v>
+        <v>0.6732419769947861</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7689108040257716</v>
+        <v>0.7679774902661548</v>
       </c>
     </row>
     <row r="7">
@@ -4384,19 +4384,19 @@
         <v>7800</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3606</v>
+        <v>3479</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14323</v>
+        <v>14207</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04594483579955256</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02124186658475295</v>
+        <v>0.02049190955597931</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08436794278756553</v>
+        <v>0.08368853074075981</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -4405,19 +4405,19 @@
         <v>9416</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3934</v>
+        <v>3809</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17293</v>
+        <v>20204</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0426448958414038</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01781534628251265</v>
+        <v>0.01724989982528502</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07831686060630655</v>
+        <v>0.09150159863786507</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -4426,19 +4426,19 @@
         <v>17216</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9911</v>
+        <v>10224</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27839</v>
+        <v>27884</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0440792386882355</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02537686199308175</v>
+        <v>0.0261782399747516</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0712792053300932</v>
+        <v>0.0713924122360301</v>
       </c>
     </row>
     <row r="9">
@@ -4455,19 +4455,19 @@
         <v>12710</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7599</v>
+        <v>7368</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20059</v>
+        <v>20485</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07487076675936602</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04476021907205992</v>
+        <v>0.04340389616959433</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1181597316061766</v>
+        <v>0.1206686209446949</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>34</v>
@@ -4476,19 +4476,19 @@
         <v>41722</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>30154</v>
+        <v>30242</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>55948</v>
+        <v>54675</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1889537186792582</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1365618998197798</v>
+        <v>0.1369637260198434</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2533811182376963</v>
+        <v>0.247615776275206</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>49</v>
@@ -4497,19 +4497,19 @@
         <v>54432</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40746</v>
+        <v>41045</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>68219</v>
+        <v>68704</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1393667358532011</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1043244346061773</v>
+        <v>0.1050917308477121</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1746650210594632</v>
+        <v>0.1759085028666574</v>
       </c>
     </row>
     <row r="10">
@@ -4526,19 +4526,19 @@
         <v>149253</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>140322</v>
+        <v>140952</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156008</v>
+        <v>156438</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8791843974410815</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8265736565531705</v>
+        <v>0.8302893926084115</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9189766138641</v>
+        <v>0.9215078752306608</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>147</v>
@@ -4547,19 +4547,19 @@
         <v>169667</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>155985</v>
+        <v>154993</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>182811</v>
+        <v>182507</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.768401385479338</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7064362921556117</v>
+        <v>0.7019437918362078</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.827931741214427</v>
+        <v>0.8265509335125014</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>307</v>
@@ -4568,19 +4568,19 @@
         <v>318920</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>302668</v>
+        <v>301235</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>333714</v>
+        <v>333343</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8165540254585634</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7749423933293841</v>
+        <v>0.7712737694796672</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8544318195126183</v>
+        <v>0.8534816033071371</v>
       </c>
     </row>
     <row r="11">
@@ -4672,19 +4672,19 @@
         <v>7486</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14130</v>
+        <v>14474</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04805726210992622</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02231718467157719</v>
+        <v>0.02230358509434931</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0907081889787112</v>
+        <v>0.0929185237211302</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -4693,19 +4693,19 @@
         <v>15288</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8015</v>
+        <v>9009</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25365</v>
+        <v>25704</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08304002740614312</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04353456751791181</v>
+        <v>0.04893210680355922</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1377721765327445</v>
+        <v>0.1396170259629257</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -4714,19 +4714,19 @@
         <v>22774</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>14832</v>
+        <v>14561</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35151</v>
+        <v>34584</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0670068553128579</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04363992940295836</v>
+        <v>0.04284313885870577</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1034239356052943</v>
+        <v>0.1017540018440644</v>
       </c>
     </row>
     <row r="13">
@@ -4743,19 +4743,19 @@
         <v>9661</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4936</v>
+        <v>4831</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17929</v>
+        <v>16885</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06202254154955261</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03168520546707305</v>
+        <v>0.03101322844367742</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1150963101898485</v>
+        <v>0.1083969412389308</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -4764,19 +4764,19 @@
         <v>22142</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13860</v>
+        <v>13519</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33676</v>
+        <v>32793</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1202661978122724</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07528072904995617</v>
+        <v>0.07343058676690717</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1829190314040386</v>
+        <v>0.1781220006207582</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -4785,19 +4785,19 @@
         <v>31803</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20727</v>
+        <v>21880</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43407</v>
+        <v>44785</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0935721798781521</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06098281526067396</v>
+        <v>0.06437601253830934</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1277132480069589</v>
+        <v>0.1317680868128629</v>
       </c>
     </row>
     <row r="14">
@@ -4814,19 +4814,19 @@
         <v>138624</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>127998</v>
+        <v>129119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144621</v>
+        <v>144993</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8899201963405212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8217082120064843</v>
+        <v>0.8289009370367862</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.928419036447566</v>
+        <v>0.9308097034943009</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>123</v>
@@ -4835,19 +4835,19 @@
         <v>146676</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>132645</v>
+        <v>134088</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>158235</v>
+        <v>157609</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7966937747815844</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7204831959537307</v>
+        <v>0.7283192565089511</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8594759751860299</v>
+        <v>0.8560785169491146</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>270</v>
@@ -4856,19 +4856,19 @@
         <v>285300</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>269524</v>
+        <v>269639</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>298395</v>
+        <v>297701</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.83942096480899</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7930049982707785</v>
+        <v>0.7933441126515702</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8779489727000757</v>
+        <v>0.8759076018408111</v>
       </c>
     </row>
     <row r="15">
@@ -4960,19 +4960,19 @@
         <v>6242</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2596</v>
+        <v>2589</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12039</v>
+        <v>11742</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07098001250352504</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02952348914420831</v>
+        <v>0.02943371285725031</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1368974057318969</v>
+        <v>0.1335117747527603</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7467</v>
+        <v>7666</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02324182141720483</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07009190544032655</v>
+        <v>0.07195485414808575</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -5002,19 +5002,19 @@
         <v>8718</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3649</v>
+        <v>3932</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15718</v>
+        <v>15021</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04482922242675587</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0187641855373493</v>
+        <v>0.02021979746559594</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0808224900135399</v>
+        <v>0.07723387843602195</v>
       </c>
     </row>
     <row r="17">
@@ -5031,19 +5031,19 @@
         <v>6987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3385</v>
+        <v>3393</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12784</v>
+        <v>12857</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07944261216860544</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03848451041115523</v>
+        <v>0.03858507503685349</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1453670825822519</v>
+        <v>0.1461981931626611</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -5052,19 +5052,19 @@
         <v>9568</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4771</v>
+        <v>4325</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18126</v>
+        <v>17612</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08981192680149362</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04478251958241311</v>
+        <v>0.04059412506200037</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1701408681883459</v>
+        <v>0.1653178467654349</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -5073,19 +5073,19 @@
         <v>16555</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9869</v>
+        <v>10002</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25712</v>
+        <v>27170</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08512288123691404</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05074592842564261</v>
+        <v>0.05143131808479947</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1322085914484722</v>
+        <v>0.1397028961217181</v>
       </c>
     </row>
     <row r="18">
@@ -5102,19 +5102,19 @@
         <v>74716</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>66585</v>
+        <v>67268</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>79809</v>
+        <v>80400</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8495773753278695</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7571158088721872</v>
+        <v>0.7648883804319474</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9074833066438304</v>
+        <v>0.9142132522721959</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>78</v>
@@ -5123,19 +5123,19 @@
         <v>94492</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>85791</v>
+        <v>86240</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>99899</v>
+        <v>100605</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8869462517813015</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8052797012662621</v>
+        <v>0.8094946551375647</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9376988108995461</v>
+        <v>0.9443331910843586</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>155</v>
@@ -5144,19 +5144,19 @@
         <v>169208</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>157135</v>
+        <v>158591</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>177810</v>
+        <v>177778</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8700478963363301</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8079729725845394</v>
+        <v>0.8154593510723732</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9142781011422972</v>
+        <v>0.9141155045003519</v>
       </c>
     </row>
     <row r="19">
@@ -5248,19 +5248,19 @@
         <v>31459</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22520</v>
+        <v>22085</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>43889</v>
+        <v>44981</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05424517122385377</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03883157781169392</v>
+        <v>0.03808195103379342</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07567878984408975</v>
+        <v>0.07756251612696106</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>43</v>
@@ -5269,19 +5269,19 @@
         <v>55450</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40132</v>
+        <v>41342</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>73206</v>
+        <v>73561</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07184301711205461</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05199668353154532</v>
+        <v>0.05356359111057693</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09484779548653337</v>
+        <v>0.09530746092872561</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>77</v>
@@ -5290,19 +5290,19 @@
         <v>86909</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>69710</v>
+        <v>69052</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>107726</v>
+        <v>108139</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06429315540987549</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0515699750901142</v>
+        <v>0.05108283968339208</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07969318024481484</v>
+        <v>0.07999891250246473</v>
       </c>
     </row>
     <row r="21">
@@ -5319,19 +5319,19 @@
         <v>49611</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>37486</v>
+        <v>38020</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>63514</v>
+        <v>63480</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0855467994885199</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06463908000325601</v>
+        <v>0.06555899446934577</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1095197896406563</v>
+        <v>0.1094610012392837</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>108</v>
@@ -5340,19 +5340,19 @@
         <v>132733</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>111431</v>
+        <v>112141</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>159239</v>
+        <v>159193</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1719726097038143</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1443738398646801</v>
+        <v>0.1452930562026623</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2063151906043303</v>
+        <v>0.2062558531591409</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>164</v>
@@ -5361,19 +5361,19 @@
         <v>182344</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>156170</v>
+        <v>157561</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>207942</v>
+        <v>208876</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1348940423172373</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1155311592968769</v>
+        <v>0.1165597332488621</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1538306096235783</v>
+        <v>0.1545219412203192</v>
       </c>
     </row>
     <row r="22">
@@ -5390,19 +5390,19 @@
         <v>498864</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>480822</v>
+        <v>483725</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>512841</v>
+        <v>513795</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8602080292876263</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8290986338934363</v>
+        <v>0.834103719367008</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8843096913576223</v>
+        <v>0.8859549434994245</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>499</v>
@@ -5411,19 +5411,19 @@
         <v>583641</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>556785</v>
+        <v>554106</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>610427</v>
+        <v>607153</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7561843731841311</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7213887850412172</v>
+        <v>0.7179172639688416</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7908889298626512</v>
+        <v>0.7866471770655966</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1025</v>
@@ -5432,19 +5432,19 @@
         <v>1082505</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1052870</v>
+        <v>1050388</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1114540</v>
+        <v>1111848</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8008128022728872</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7788892029533614</v>
+        <v>0.7770534349916949</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8245113316850036</v>
+        <v>0.822519743120054</v>
       </c>
     </row>
     <row r="23">
@@ -5776,19 +5776,19 @@
         <v>9787</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5708</v>
+        <v>5882</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15525</v>
+        <v>15450</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1476829584768817</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08613298716997581</v>
+        <v>0.08874919031018462</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2342529824149285</v>
+        <v>0.2331228563505442</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -5797,19 +5797,19 @@
         <v>33353</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25565</v>
+        <v>26749</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41326</v>
+        <v>41307</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2332182737336397</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1787588998366617</v>
+        <v>0.1870413720327837</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2889671562090884</v>
+        <v>0.2888325644327128</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -5818,19 +5818,19 @@
         <v>43140</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33248</v>
+        <v>34872</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51928</v>
+        <v>53786</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2061324819580176</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1588639632977335</v>
+        <v>0.1666263764516347</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.248122175399693</v>
+        <v>0.257001016036105</v>
       </c>
     </row>
     <row r="5">
@@ -5847,19 +5847,19 @@
         <v>14126</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9240</v>
+        <v>9144</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20476</v>
+        <v>20164</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2131417643200566</v>
+        <v>0.2131417643200565</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1394244748485258</v>
+        <v>0.1379808718281841</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3089647277271412</v>
+        <v>0.3042575231737413</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>70</v>
@@ -5868,19 +5868,19 @@
         <v>38730</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31647</v>
+        <v>31943</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46674</v>
+        <v>47339</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2708125478829356</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2212856932537141</v>
+        <v>0.2233577578355425</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3263615052137764</v>
+        <v>0.3310089458789535</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>91</v>
@@ -5889,19 +5889,19 @@
         <v>52855</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43046</v>
+        <v>44105</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>63423</v>
+        <v>63223</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2525503969756506</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2056833701362648</v>
+        <v>0.2107404850463439</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3030437344652051</v>
+        <v>0.3020911253953186</v>
       </c>
     </row>
     <row r="6">
@@ -5918,19 +5918,19 @@
         <v>42360</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34680</v>
+        <v>36294</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>48102</v>
+        <v>48582</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6391752772030619</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5232910505145326</v>
+        <v>0.5476415525146757</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7258085502327358</v>
+        <v>0.7330657378166301</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>136</v>
@@ -5939,19 +5939,19 @@
         <v>70930</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>62615</v>
+        <v>61319</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>79805</v>
+        <v>79058</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4959691783834247</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.437825007911994</v>
+        <v>0.4287667475844306</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5580249381679958</v>
+        <v>0.5528019574677362</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>193</v>
@@ -5960,19 +5960,19 @@
         <v>113290</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>102157</v>
+        <v>101013</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>124964</v>
+        <v>124738</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5413171210663318</v>
+        <v>0.5413171210663319</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4881252576256452</v>
+        <v>0.4826559991729518</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5970999205997024</v>
+        <v>0.5960210317195453</v>
       </c>
     </row>
     <row r="7">
@@ -6064,19 +6064,19 @@
         <v>15198</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10459</v>
+        <v>10246</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21580</v>
+        <v>22439</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0754971752185138</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05195539802227616</v>
+        <v>0.05089629039983509</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1071989390675193</v>
+        <v>0.1114668209682518</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -6085,19 +6085,19 @@
         <v>39226</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>31224</v>
+        <v>31666</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>48400</v>
+        <v>48522</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1302538555214731</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1036839813492983</v>
+        <v>0.1051507872306656</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1607183349675506</v>
+        <v>0.1611213470623085</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>107</v>
@@ -6106,19 +6106,19 @@
         <v>54424</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>45149</v>
+        <v>44042</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>65985</v>
+        <v>66053</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1083159743614352</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08985698211706072</v>
+        <v>0.08765417467040139</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.131326461252247</v>
+        <v>0.1314602155916861</v>
       </c>
     </row>
     <row r="9">
@@ -6135,19 +6135,19 @@
         <v>22630</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15903</v>
+        <v>15681</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>31319</v>
+        <v>30066</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.112419480077961</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07900126710291384</v>
+        <v>0.07789468102284734</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1555800116415143</v>
+        <v>0.1493545367351237</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>115</v>
@@ -6156,19 +6156,19 @@
         <v>61105</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>50359</v>
+        <v>51108</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>70908</v>
+        <v>71247</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2029060794010482</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1672228189086344</v>
+        <v>0.1697116367519126</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2354584225812047</v>
+        <v>0.2365841126841748</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>149</v>
@@ -6177,19 +6177,19 @@
         <v>83735</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>72219</v>
+        <v>71602</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>99270</v>
+        <v>96882</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1666532559730624</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1437322368778436</v>
+        <v>0.1425044334639122</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1975708301760239</v>
+        <v>0.1928176230721064</v>
       </c>
     </row>
     <row r="10">
@@ -6206,19 +6206,19 @@
         <v>163476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>155002</v>
+        <v>153790</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>172029</v>
+        <v>172135</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8120833447035252</v>
+        <v>0.8120833447035253</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7699889686217557</v>
+        <v>0.7639685358237196</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8545739791147314</v>
+        <v>0.8550994196294591</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>371</v>
@@ -6227,19 +6227,19 @@
         <v>200818</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>188524</v>
+        <v>187465</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>212821</v>
+        <v>213213</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6668400650774787</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6260143176974751</v>
+        <v>0.6224998956491647</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7066972738752684</v>
+        <v>0.7079991832495026</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>605</v>
@@ -6248,19 +6248,19 @@
         <v>364294</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>346774</v>
+        <v>347870</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>378904</v>
+        <v>379220</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7250307696655023</v>
+        <v>0.7250307696655022</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6901627984613664</v>
+        <v>0.692342417209483</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7541077361231154</v>
+        <v>0.7547381159753689</v>
       </c>
     </row>
     <row r="11">
@@ -6352,19 +6352,19 @@
         <v>9665</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5603</v>
+        <v>5873</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15618</v>
+        <v>16098</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0421462423668798</v>
+        <v>0.04214624236687981</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0244345547044036</v>
+        <v>0.02561188635114266</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06810809803867302</v>
+        <v>0.07020023748495449</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -6373,19 +6373,19 @@
         <v>16557</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11294</v>
+        <v>11245</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22984</v>
+        <v>23829</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07036545165579945</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04799729180522672</v>
+        <v>0.04779075816480829</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.097675422335589</v>
+        <v>0.101266584891753</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>50</v>
@@ -6394,19 +6394,19 @@
         <v>26222</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>19457</v>
+        <v>19861</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>34668</v>
+        <v>34628</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05643776542724293</v>
+        <v>0.05643776542724292</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.041877758387738</v>
+        <v>0.04274745122421935</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07461604026532859</v>
+        <v>0.07452894149188596</v>
       </c>
     </row>
     <row r="13">
@@ -6423,19 +6423,19 @@
         <v>13488</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8462</v>
+        <v>8500</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21501</v>
+        <v>20346</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05881958465092283</v>
+        <v>0.05881958465092284</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0368993078548875</v>
+        <v>0.03706873881021453</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09376046605499611</v>
+        <v>0.08872683172499914</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -6444,19 +6444,19 @@
         <v>40629</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32201</v>
+        <v>32970</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49631</v>
+        <v>50070</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1726661728795099</v>
+        <v>0.17266617287951</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1368475079122952</v>
+        <v>0.1401162551925109</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2109211764748823</v>
+        <v>0.2127868548373764</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -6465,19 +6465,19 @@
         <v>54117</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44427</v>
+        <v>43844</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65542</v>
+        <v>65653</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1164768040419488</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09561973525296341</v>
+        <v>0.09436560029801712</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1410656131688469</v>
+        <v>0.1413054091698272</v>
       </c>
     </row>
     <row r="14">
@@ -6494,19 +6494,19 @@
         <v>206161</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>197686</v>
+        <v>197924</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>212935</v>
+        <v>212498</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8990341729821973</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8620762198152125</v>
+        <v>0.8631130150939645</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9285759614229215</v>
+        <v>0.9266672767636548</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>343</v>
@@ -6515,19 +6515,19 @@
         <v>178118</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>168656</v>
+        <v>168075</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>187485</v>
+        <v>188142</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7569683754646905</v>
+        <v>0.7569683754646906</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7167534197674937</v>
+        <v>0.7142864432593654</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7967760841262719</v>
+        <v>0.7995685896224755</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>633</v>
@@ -6536,19 +6536,19 @@
         <v>384280</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>372083</v>
+        <v>371198</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>396211</v>
+        <v>395604</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8270854305308082</v>
+        <v>0.8270854305308083</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8008343113442353</v>
+        <v>0.7989296324093431</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8527660691223157</v>
+        <v>0.8514583793014993</v>
       </c>
     </row>
     <row r="15">
@@ -6640,19 +6640,19 @@
         <v>6928</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3473</v>
+        <v>3683</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12120</v>
+        <v>12583</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03255158382051562</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01631867286822322</v>
+        <v>0.01730259371476694</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05694250100758184</v>
+        <v>0.05911872161023644</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -6661,19 +6661,19 @@
         <v>14479</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9821</v>
+        <v>10054</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21087</v>
+        <v>21311</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06948650892818985</v>
+        <v>0.06948650892818986</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04712949588192692</v>
+        <v>0.04825161321039186</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1011970095389055</v>
+        <v>0.1022711577082734</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -6682,19 +6682,19 @@
         <v>21408</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15331</v>
+        <v>15351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28791</v>
+        <v>29209</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05082302300604943</v>
+        <v>0.05082302300604944</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03639652729277121</v>
+        <v>0.03644497650820143</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06835236608177662</v>
+        <v>0.0693443187811696</v>
       </c>
     </row>
     <row r="17">
@@ -6711,19 +6711,19 @@
         <v>15140</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9907</v>
+        <v>9546</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22485</v>
+        <v>21774</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07113296888707685</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04654599459114198</v>
+        <v>0.04485092932686554</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1056380820057251</v>
+        <v>0.1022994908901886</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>48</v>
@@ -6732,19 +6732,19 @@
         <v>26545</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20318</v>
+        <v>19445</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36071</v>
+        <v>34680</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.127392384993445</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09750730129032956</v>
+        <v>0.09331529740806374</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1731072455953599</v>
+        <v>0.1664330840251225</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>70</v>
@@ -6753,19 +6753,19 @@
         <v>41686</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32137</v>
+        <v>32604</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>51806</v>
+        <v>52943</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09896409341229119</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07629617987825339</v>
+        <v>0.077403806907798</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1229909605827789</v>
+        <v>0.1256886968436132</v>
       </c>
     </row>
     <row r="18">
@@ -6782,19 +6782,19 @@
         <v>190777</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>182214</v>
+        <v>183109</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>197247</v>
+        <v>197377</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8963154472924076</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8560855381683168</v>
+        <v>0.8602899343605553</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9267110328573672</v>
+        <v>0.9273218642702263</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>320</v>
@@ -6803,19 +6803,19 @@
         <v>167350</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>157535</v>
+        <v>158614</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>175049</v>
+        <v>175918</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8031211060783651</v>
+        <v>0.8031211060783652</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7560191481038742</v>
+        <v>0.7611952028880145</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8400677931551827</v>
+        <v>0.844239815025684</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>589</v>
@@ -6824,19 +6824,19 @@
         <v>358127</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>346212</v>
+        <v>346046</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>369429</v>
+        <v>369632</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8502128835816594</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8219268743089162</v>
+        <v>0.8215320155891264</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8770444364576216</v>
+        <v>0.8775275346782312</v>
       </c>
     </row>
     <row r="19">
@@ -6928,19 +6928,19 @@
         <v>41578</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32578</v>
+        <v>32847</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52804</v>
+        <v>51535</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05858290544154207</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04590191212316211</v>
+        <v>0.04628024360988402</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07439995366204998</v>
+        <v>0.07261193400216349</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>200</v>
@@ -6949,19 +6949,19 @@
         <v>103616</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>89559</v>
+        <v>90600</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>118523</v>
+        <v>117535</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1167050328586227</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1008730508619738</v>
+        <v>0.1020455696234809</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1334960521530191</v>
+        <v>0.1323829210474972</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>271</v>
@@ -6970,19 +6970,19 @@
         <v>145194</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>129316</v>
+        <v>130062</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>162689</v>
+        <v>163775</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.09088380014843238</v>
+        <v>0.09088380014843239</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08094508998950789</v>
+        <v>0.08141222960973558</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1018347980377877</v>
+        <v>0.102514708378455</v>
       </c>
     </row>
     <row r="21">
@@ -6999,19 +6999,19 @@
         <v>65385</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>53860</v>
+        <v>53379</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>81004</v>
+        <v>79801</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09212499954202669</v>
+        <v>0.0921249995420267</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07588658448171662</v>
+        <v>0.07520979684517241</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1141325218130719</v>
+        <v>0.1124372247231734</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>305</v>
@@ -7020,19 +7020,19 @@
         <v>167009</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>150039</v>
+        <v>149443</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>184847</v>
+        <v>184814</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1881069709350209</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1689933071652315</v>
+        <v>0.1683214082663297</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2081981341115185</v>
+        <v>0.2081616219990666</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>403</v>
@@ -7041,19 +7041,19 @@
         <v>232393</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>210781</v>
+        <v>212159</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>254488</v>
+        <v>255610</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.145466191434011</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1319379631437143</v>
+        <v>0.1328007760662236</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1592964138075336</v>
+        <v>0.1599983474893125</v>
       </c>
     </row>
     <row r="22">
@@ -7070,19 +7070,19 @@
         <v>602774</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>585120</v>
+        <v>584185</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>616250</v>
+        <v>618223</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8492920950164314</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8244182570149035</v>
+        <v>0.8231007370140055</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8682793859611349</v>
+        <v>0.8710595115417674</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1170</v>
@@ -7091,19 +7091,19 @@
         <v>617216</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>595511</v>
+        <v>596344</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>636873</v>
+        <v>636435</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6951879962063564</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6707400970816066</v>
+        <v>0.6716790518077391</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7173273100124258</v>
+        <v>0.7168339889651409</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2020</v>
@@ -7112,19 +7112,19 @@
         <v>1219990</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1193583</v>
+        <v>1192489</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1246475</v>
+        <v>1245023</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7636500084175567</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7471207414721689</v>
+        <v>0.7464361396124702</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.780228207407049</v>
+        <v>0.7793193851423974</v>
       </c>
     </row>
     <row r="23">
